--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3367,4 +3368,820 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.46</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7877</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.45</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5142</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.72</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4643</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3785</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>77.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1571</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1551</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>516680</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信中证细分有色金属产业主题ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.95</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159871</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>97.21</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>159876</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华宝中证有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>95.65</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.34</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4184,4 +4185,668 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6798</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>82.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6503</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5597</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2796</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>630008</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商策略精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.68</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004244</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>东方周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0184</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>165531</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>信诚多策略灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>61.74</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>75.06</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4849,4 +4850,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>33</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>41</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4858,7 +4859,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4869,17 +4870,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4889,14 +4910,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>16</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.7</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.92</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6595</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -4905,14 +4948,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>20</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.85</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>23.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6456</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -4921,14 +4986,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>33</v>
-      </c>
-      <c r="D4" t="n">
-        <v>10.48</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6300</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4937,13 +5024,835 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.27</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5436</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005273</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华商可转债债券A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.55</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2529</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1899</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1599</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003241</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>15.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商可转债债券C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>40.05</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1318</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1285</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1065</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001120</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0708</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>56.38</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001121</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>东方睿鑫热点挖掘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>87.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>510170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>国联安上证大宗商品股票ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.07</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>003242</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信量化发现灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>78.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.46</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>22</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>16</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>20</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>33</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>41</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5751,7 +5752,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5762,17 +5763,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5782,14 +5803,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>22</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.95</v>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7064</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -5798,14 +5841,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>16</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.7</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.61</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6667</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -5814,14 +5879,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>20</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.85</v>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.62</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6537</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -5830,14 +5917,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>33</v>
-      </c>
-      <c r="D5" t="n">
-        <v>10.48</v>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>19.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4716</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -5846,13 +5955,889 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011630</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1104</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011631</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>西藏东财中证有色金属指数增强C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.28</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0690</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>160620</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华中证A股资源产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012496</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0590</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012497</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>同泰行业优选股票C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.80</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>29.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>22</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>16</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>41</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6720,7 +6721,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6731,17 +6732,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6751,14 +6772,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>24</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.59</v>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -6767,14 +6810,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>22</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.95</v>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -6783,14 +6848,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>24</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="5">
@@ -6799,14 +6970,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D5" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="6">
@@ -6815,14 +6986,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D6" t="n">
-        <v>10.48</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="7">
@@ -6831,13 +7002,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>33</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>41</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>10.1</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>3.59</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
-        <v>3.95</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
-        <v>10.48</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>33</v>
+      </c>
+      <c r="D8" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>41</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>10.1</v>
       </c>
     </row>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>万家颐和灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5067</t>
+          <t>0.5090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -694,32 +711,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>519197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>万家颐达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3752</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -732,36 +749,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>016620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>万家颐和灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0939</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -770,6 +787,176 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1737,7 +1924,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2629,7 +2816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3293,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +4296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5419,7 +5606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
+++ b/数据整理/stocks/A股/上证主板/601168-西部矿业.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>3.59</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>3.95</v>
+        <v>3.59</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
-        <v>2.7</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" t="n">
-        <v>3.85</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>10.48</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1644 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>33</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.48</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>41</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>10.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>512400</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>南方中证申万有色金属ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>99.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2435</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚富混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.28</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0986</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>630002</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华商盛世成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>23.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8232</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.79</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8169</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160221</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国泰国证有色金属行业指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.89</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.7222</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>240022</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.5041</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>110025</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达资源行业混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4371</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>003625</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005233</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发睿毅领先混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.27</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3582</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003624</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信资源主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010235</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发资源优选股票C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.3120</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>166301</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商新趋势优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2832</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发价值领先混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>165520</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信保诚中证800 有色指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2491</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>005402</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发资源优选股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2027</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011068</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华宝资源优选混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.52</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003304</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1765</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001959</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华商乐享互联灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>89.48</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001990</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.75</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001719</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银瑞信国家战略主题股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009907</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0989</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心资源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002906</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001421</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>南方量化成长股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0489</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>002772</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>光大保德信产业新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004234</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中欧数据挖掘多因子灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0417</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007674</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0375</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010076</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0310</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000757</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富智慧城市灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002907</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>南方中证500量化增强股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.11</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0298</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009908</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>湘财长泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>75.89</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004205</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>东方支柱产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.28</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006440</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>007675</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>工银瑞信产业升级股票C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>5.96</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010077</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>湘财长弘灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>410006</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华富策略精选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>71.84</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006441</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信建投中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>162907</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰信中证锐联基本面400指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -622,7 +2253,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,36 +2304,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>014155</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合A</t>
+          <t>国泰君安中证500指数增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>9.55</t>
+          <t>7.70</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5090</t>
+          <t>0.0839</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +2342,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519197</t>
+          <t>014156</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家颐达灵活配置混合</t>
+          <t>国泰君安中证500指数增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.25</t>
+          <t>4.81</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>45.36</t>
+          <t>92.93</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>1.09</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0524</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +2380,150 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>016620</t>
+          <t>006048</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合C</t>
+          <t>长城中证500指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>2.20</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.93</t>
+          <t>94.03</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>1.19</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0096</t>
+          <t>0.0262</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>014133</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>014134</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>工银中证500六个月持有指数增强C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -843,36 +2588,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000390</t>
+          <t>519198</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华商优势行业混合</t>
+          <t>万家颐和灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.34</t>
+          <t>9.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.89</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.62</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5067</t>
+          <t>0.5090</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -881,32 +2626,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519198</t>
+          <t>519197</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家颐和灵活配置混合</t>
+          <t>万家颐达灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.40</t>
+          <t>2.25</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.49</t>
+          <t>45.36</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.07</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3752</t>
+          <t>0.0493</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -919,36 +2664,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001050</t>
+          <t>016620</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>汇添富成长多因子量化策略股票</t>
+          <t>万家颐和灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8.24</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>93.77</t>
+          <t>93.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0939</t>
+          <t>0.0096</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -957,6 +2702,176 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000390</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华商优势行业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5067</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519198</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>万家颐和灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.49</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1924,7 +3839,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2816,7 +4731,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3480,7 +5395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4296,7 +6211,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5604,1618 +7519,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H42"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>512400</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>南方中证申万有色金属ETF</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>44.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>99.34</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.2435</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>270001</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>广发聚富混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.28</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>74.92</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>7.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0986</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>630002</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华商盛世成长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>23.93</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.88</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.8232</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000390</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华商优势行业混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>22.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>87.79</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8169</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160221</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>国泰国证有色金属行业指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>28.89</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>92.86</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.7222</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>240022</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.28</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.6198</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001763</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发多策略灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>7.04</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>91.75</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.16</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.5041</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>110025</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>易方达资源行业混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>9.32</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>90.03</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.4371</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>003625</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>7.28</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.3771</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005233</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>广发睿毅领先混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>89.27</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.86</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.3582</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>003624</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>创金合信资源主题精选股票A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.43</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.79</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5.18</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.3331</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>010235</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>广发资源优选股票C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.3120</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>166301</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华商新趋势优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.00</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>84.78</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.54</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.2832</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>008099</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>广发价值领先混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.95</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>92.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>7.08</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.2797</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>165520</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>中信保诚中证800 有色指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>7.48</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>94.18</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.2491</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>005402</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>广发资源优选股票A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.2027</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>011068</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>华宝资源优选混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>85.52</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.34</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1784</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>003304</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1765</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>001959</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>华商乐享互联灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>89.48</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1601</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>001990</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>10.75</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.1172</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001719</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>工银瑞信国家战略主题股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.74</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>93.09</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>6.08</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>009907</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0989</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>003305</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>前海开源沪港深核心资源灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>1.57</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>93.29</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>6.26</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0983</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002906</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票A</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>6.01</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>001421</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方量化成长股票</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2.80</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>85.74</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>2.17</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0608</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002305</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2.91</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0489</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002772</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>光大保德信产业新动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>92.29</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0478</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>004234</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>中欧数据挖掘多因子灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>3.83</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.59</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0417</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>007674</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票A</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0375</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>010076</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0310</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>000757</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>华富智慧城市灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.67</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>89.65</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0308</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>002907</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>南方中证500量化增强股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>91.11</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0298</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>009908</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>湘财长泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>1.31</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>75.89</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.45</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0190</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>004205</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>东方支柱产业灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>88.28</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>5.43</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>006440</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0120</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>007675</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>工银瑞信产业升级股票C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>93.36</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>5.96</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>010077</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>湘财长弘灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>87.84</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>410006</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>华富策略精选混合</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>71.84</t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>0.0044</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>006441</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>中信建投中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>94.41</t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>0.86</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>0.0040</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>007499</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>光大保德信风格轮动混合C</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>0.21</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>1.68</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>0.0035</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>162907</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>泰信中证锐联基本面400指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>94.55</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>0.70</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>